--- a/data/stab_nye.xlsx
+++ b/data/stab_nye.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uio.sharepoint.com/sites/UndervisningsplanleggingISS/Delte dokumenter/General/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uio-my.sharepoint.com/personal/torbskar_uio_no/Documents/Dokumenter/SKAPLAN_deling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="11_8FD9D14A07AB4BE5BE4F001D3D2269C9C31478E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{531F0AC1-67D1-44AA-AC4E-83D0F35BBD45}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="11_8FD9D14A07AB4BE5BE4F001D3D2269C9C31478E1" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{01DEA7FF-7726-4AC0-B5BE-2DF148330DC7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>navn</t>
   </si>
@@ -67,13 +67,19 @@
   </si>
   <si>
     <t>Hannah Ander</t>
+  </si>
+  <si>
+    <t>Hakke P. Eiling</t>
+  </si>
+  <si>
+    <t>Ane-Rikke Hveem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,16 +508,16 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="76.7265625" customWidth="1"/>
+    <col min="1" max="1" width="76.7109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -519,7 +525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -527,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
@@ -535,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -543,7 +549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -551,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -559,7 +565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -567,127 +573,131 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="9"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1">
       <c r="A29" s="11"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1">
       <c r="A34" s="5"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1">
       <c r="A35" s="5"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1">
       <c r="A42" s="9"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1">
       <c r="A46" s="12"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1">
       <c r="A48" s="7"/>
     </row>
   </sheetData>
@@ -705,18 +715,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -897,18 +907,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B528FC61-0658-481D-A6A8-07768412F724}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C19F928-141B-4A29-9C3D-E31D681F6D1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B528FC61-0658-481D-A6A8-07768412F724}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
